--- a/SISTEMA/SDR.xlsx
+++ b/SISTEMA/SDR.xlsx
@@ -2304,7 +2304,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2982,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,6 +3011,8 @@
     <col min="40" max="40" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3594,7 +3596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50">
         <v>1</v>
       </c>
@@ -3744,7 +3746,7 @@
         <v>334883.4369808</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <v>2</v>
       </c>
@@ -3888,7 +3890,7 @@
         <v>298748.84375</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50">
         <v>3</v>
       </c>
@@ -4029,7 +4031,7 @@
         <v>323949.71875</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50">
         <v>4</v>
       </c>
@@ -4170,7 +4172,7 @@
         <v>398912.5</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50">
         <v>5</v>
       </c>
@@ -4323,7 +4325,7 @@
         <v>746740.07972319995</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50">
         <v>6</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50">
         <v>7</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>95</v>
       </c>
@@ -4680,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -4789,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -4898,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -5007,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -5116,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -5225,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -5334,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -5443,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -5491,7 +5493,7 @@
       <c r="AS23" s="51"/>
       <c r="AT23" s="62"/>
     </row>
-    <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -5539,7 +5541,7 @@
       <c r="AS24" s="51"/>
       <c r="AT24" s="62"/>
     </row>
-    <row r="25" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20" t="s">
